--- a/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
@@ -901,13 +901,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,21 +932,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1360,13 +1360,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
@@ -1387,41 +1387,41 @@
       <c r="A2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="33">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33">
         <f>SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33">
         <f>SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33">
         <f>SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33">
         <f>SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33">
         <f>SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="34"/>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>59</v>
       </c>
@@ -1536,41 +1536,41 @@
       <c r="A7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
         <f>SUM(B7+1)</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33">
         <f>SUM(D7+1)</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33">
         <f>SUM(F7+1)</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33">
         <f>SUM(H7+1)</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33">
         <f>SUM(J7+1)</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="33"/>
+      <c r="N7" s="33">
         <f>SUM(L7+1)</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="34"/>
@@ -1658,6 +1658,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1666,16 +1676,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,32 +1698,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1732,8 +1732,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1808,7 +1808,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1864,7 +1864,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1920,7 +1920,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1996,7 +1996,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2052,7 +2052,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2108,7 +2108,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2204,7 +2204,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2242,7 +2242,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="42"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="42"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2423,6 +2423,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2433,11 +2438,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library1\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week22-23" sheetId="6" r:id="rId1"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="newest" sheetId="6" r:id="rId1"/>
+    <sheet name="newest (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>分组</t>
   </si>
@@ -203,25 +204,13 @@
   </si>
   <si>
     <t>人员</t>
-  </si>
-  <si>
-    <t>端午节假</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>郑州银行无纸化（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>郑州银行无纸化（外出）、整理本组周报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）柜面业务对接</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）生产数据准备</t>
+    <t>上午</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,15 +890,27 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,15 +924,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,33 +1332,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
-    <col min="10" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
@@ -1384,47 +1365,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="36">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33">
-        <f>SUM(D2+1)</f>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33">
-        <f>SUM(F2+1)</f>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33">
-        <f>SUM(H2+1)</f>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33">
-        <f>SUM(J2+1)</f>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33">
-        <f>SUM(L2+1)</f>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1468,54 +1449,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3</v>
+      </c>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28">
+        <v>5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>6</v>
+      </c>
+      <c r="H4" s="28">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28">
+        <v>8</v>
+      </c>
+      <c r="J4" s="28">
+        <v>9</v>
+      </c>
+      <c r="K4" s="28">
+        <v>10</v>
+      </c>
+      <c r="L4" s="28">
+        <v>11</v>
+      </c>
+      <c r="M4" s="28">
+        <v>12</v>
+      </c>
+      <c r="N4" s="28">
+        <v>13</v>
+      </c>
+      <c r="O4" s="28">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>59</v>
       </c>
@@ -1533,47 +1522,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="33">
-        <f>DATE(2017,6,5)</f>
+      <c r="B7" s="36">
+        <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33">
-        <f>SUM(B7+1)</f>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7:O7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33">
-        <f>SUM(D7+1)</f>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:O7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
-        <f>SUM(F7+1)</f>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7:O7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33">
-        <f>SUM(H7+1)</f>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7:O7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
-        <f>SUM(J7+1)</f>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7:O7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33">
-        <f>SUM(L7+1)</f>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7:O7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="33"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1617,39 +1606,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1658,16 +1647,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1676,6 +1655,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,13 +1673,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3</v>
+      </c>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28">
+        <v>5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>6</v>
+      </c>
+      <c r="H4" s="28">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28">
+        <v>8</v>
+      </c>
+      <c r="J4" s="28">
+        <v>9</v>
+      </c>
+      <c r="K4" s="28">
+        <v>10</v>
+      </c>
+      <c r="L4" s="28">
+        <v>11</v>
+      </c>
+      <c r="M4" s="28">
+        <v>12</v>
+      </c>
+      <c r="N4" s="28">
+        <v>13</v>
+      </c>
+      <c r="O4" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7:O7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:O7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7:O7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7:O7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7:O7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7:O7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
@@ -1698,32 +2032,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1732,8 +2066,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1788,7 +2122,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1808,7 +2142,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +2160,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +2178,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1864,7 +2198,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +2216,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +2234,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1920,7 +2254,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +2272,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +2310,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1996,7 +2330,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2348,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2366,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2052,7 +2386,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2404,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2088,7 +2422,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2108,7 +2442,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2460,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2518,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2204,7 +2538,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2556,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2242,7 +2576,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +2594,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2278,7 +2612,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2296,7 +2630,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
@@ -2314,7 +2648,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2666,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="39"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
@@ -2350,7 +2684,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +2702,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -2386,7 +2720,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2738,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2423,11 +2757,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2438,6 +2767,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -893,13 +893,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,21 +924,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,22 +1332,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:E1"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
@@ -1368,41 +1368,41 @@
       <c r="A2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>59</v>
       </c>
@@ -1525,41 +1525,41 @@
       <c r="A7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7:O7" si="5">D2+7</f>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
+        <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7:O7" si="6">F2+7</f>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
+        <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7:O7" si="7">H2+7</f>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7:O7" si="8">J2+7</f>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
+        <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7:O7" si="9">L2+7</f>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
+        <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7:O7" si="10">N2+7</f>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
+        <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1647,6 +1647,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1655,16 +1665,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,19 +1680,19 @@
       <selection pane="topRight" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
@@ -1713,41 +1713,41 @@
       <c r="A2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>59</v>
       </c>
@@ -1870,41 +1870,41 @@
       <c r="A7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7:O7" si="5">D2+7</f>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
+        <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7:O7" si="6">F2+7</f>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
+        <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7:O7" si="7">H2+7</f>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7:O7" si="8">J2+7</f>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
+        <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7:O7" si="9">L2+7</f>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
+        <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7:O7" si="10">N2+7</f>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
+        <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1992,16 +1992,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2010,6 +2000,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,7 +2024,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
@@ -2032,32 +2032,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
@@ -2066,8 +2066,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2142,7 +2142,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2198,7 +2198,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2254,7 +2254,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2330,7 +2330,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2386,7 +2386,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2442,7 +2442,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2538,7 +2538,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2576,7 +2576,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2757,6 +2757,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2767,11 +2772,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯1.xlsx
@@ -206,10 +206,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>天津银行需求文档编写</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>学习RA部署</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -259,6 +255,10 @@
   </si>
   <si>
     <t>韩智凯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行需求文档编写11111111111111111</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -950,6 +950,21 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,21 +972,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1380,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1499,37 +1499,37 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1648,37 +1648,37 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="I9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="J9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="K9" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>73</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1687,11 +1687,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1705,6 +1700,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,32 +1727,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1761,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1837,7 +1837,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1893,7 +1893,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1949,7 +1949,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2025,7 +2025,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2081,7 +2081,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2137,7 +2137,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2233,7 +2233,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2271,7 +2271,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2452,6 +2452,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2462,11 +2467,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
